--- a/processing/test/20230613-a1r-nc-session3-i_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-i_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-i_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,458 +361,493 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="286.5" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:07"</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Hi LJ Here Again, live in Arizona have two grown children. I'm a retired attorney. Hi everybody.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:07"</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:22"</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Hello, everyone, Peter again civil engineer from Maine. I see you all again.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:27"</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>I am Heather. I'm in New York state. It's nice to see you guys.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"2:33"</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"2:40"</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"2:51"</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Hi Kelly. How retired engineer from South Carolina? Couldn't hear the last two people.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>48640</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"2:59"</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>Hi. I'm Tom. I'm a nice Central aisle. I couldn't hear the two before you either. Mine was kind of breaking in out different time zone with its minor. Everybody</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>48640</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"2:59"</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"3:13"</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"3:13"</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>Dave, I'm also in New York retired. Maybe we have some technical difficulties.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"3:23"</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"3:23"</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Can you guys hear me now?</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"3:31"</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>Hey, do you want to try to give another shot? Yeah.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"3:34"</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"3:45"</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>Faith. You might want to try. Just res, refreshing. The whole page. That's what I did.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"11:55"</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>I'm not sure. I like, either of the first two options, but the last option for the automotive automatic voter, registration, seems to make sense to me, if you don't want to vote, don't vote. But why would you care if you're registered? I mean, I can't imagine so much that I don't register me. It seems kind of weird. So, I kind of like that third option.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"12:16"</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"12:16"</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>I also did not like the idea of people registering to vote online. There's too many failures with online registrations of all different kinds, just making a doctor's appointment. It is sometime fraught with difficulty. And I don't like the idea of people not registering, I had election day. I also don't like automatic voter registration because it is an important, right? I think people should take</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"12:16"</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>Take make an effort to register themselves to vote. We can't even keep our voter rolls straight. We don't even know who is living in a state. I can't imagine automatic registration.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the issue of voting registration.
 2. The author suggests that people should make an effort to register themselves to vote.
@@ -818,118 +855,123 @@
 4. The author questions the idea of automatic registration, suggesting that there are issues with accurately tracking who is living in a state.</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"13:01"</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>I actually like the idea of the automatic voter registration if they just made it something that you could automatically do when you are 18,</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The reader likes the idea of automatic voter registration.
-2. They suggest that the automatic registration should be an option when individuals turn 18.</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The user expresses support for the idea of automatic voter registration.
+2. They suggest that automatic registration could be implemented when individuals reach the age of 18.</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"13:01"</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="n"/>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"13:01"</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>I don't know. You could tie it to some other kind of registration that you have to do to make it a little simpler. But I do my husband's disabled and it's extremely difficult for him to do anything like this in person.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"13:34"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"13:34"</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>I'm definitely on the pro side of the automatic voter registration. I don't really know what the downside would be. I would love for somebody to kind of point out some potential site, downsides to automatic voter registration but it just seems like something that wouldn't be harmful and would definitely be helpful and I kind of liked what</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker is in favor of automatic voter registration.
 2. They are unsure of any downsides to automatic voter registration.
@@ -939,106 +981,108 @@
 6. The speaker expresses a positive view of automatic voter registration.</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"13:34"</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> You were saying Heather about, maybe that kind of being lumped in with like maybe they ask you. When you're getting your ID renewed. Hey, do you want to register to vote? Okay, cool.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"14:18"</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>Yeah, I guess a lot of options here and I kind of have mixed feelings, but what I think overall it needs to be made easier to vote. I mean that that, that that's the bottom line. But I also like the idea of people showing up to vote what I think possibly extend the, the, the days early voting and registration. Yes, could be automatic driver's.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text expresses a desire to make voting easier.
 2. The idea of expanding early voting and registration is supported.
 3. The possibility of automatic registration through driver's license is mentioned as a good option.</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"14:18"</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Since, you know, there are a number of ways to do that, but access to the ballot is the most important issue here.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"14:58"</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree. I was just going to say that I feel like, you know, having a lot of different options for people to vote gives. You know, gives you the most Broadway and allows the most people who want to vote actually able to do it. I think, you know, the online registration does seem like it could be a little hokey but I mean everything this this day is like online like Banks and everything important is also online. So I'm sure you know, there'd be a lot of attention to it and making sure that didn't get breached or anything.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Having multiple options for people to vote is important.
 2. This allows more people who want to vote to actually do so.
@@ -1047,227 +1091,238 @@
 5. Therefore, it is likely that online voting registration would receive a lot of attention and security measures to prevent breaches.</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"14:58"</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> But, you know, I'm still not 100% on that either. I think, at least the mailing ballots, you know, apparently there is</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="n"/>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"14:58"</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Errors at that, too. But that's how I did mine and I enjoyed that.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"15:41"</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>Can you hear me?</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"15:41"</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I'm good with the automated automated phone them. What I think they mean is that if you register or if you go to pot for your driver's license, do you have an option to register to vote at the same time? It's not like they're making you do it or that they automatically do without your permission.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"15:49"</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"15:49"</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"16:09"</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think so, with this first one in regards to just registering to vote, I believe that I did my voter registration online. A while ago, I think you can do it till change your address and stuff like that. Whenever you move and that's again in Washington, stay. I'm not sure what it's like elsewhere, as for voting online. I think that that's, that's probably going to come up later, but I don't see any kind of downside to doing the registration part, because I mean, all of the information,</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"16:09"</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>Is kind of.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"16:09"</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I mean, it sounds like a lot of places are already doing it that way, anyway.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n"/>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"16:49"</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>I know here, when I went to get my driver's license, they ask us then if you want to register to vote if you're moving into the state, so they already do that but I don't consider that same as what they're talking about here, about an automatic voter registration, which I think would just open it up to everybody say, Hey, you registered, you just need to show up and vote.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person went to get their driver's license in a certain state.
 2. At that time, they were asked if they wanted to register to vote as part of the process of moving into the state.
@@ -1276,138 +1331,140 @@
 5. After being registered, people would just need to show up and vote.</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"17:29"</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>Is there anyone who likes allowing potential voters to register to vote on Election Day. I don't think anybody spoke in favor of that option.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. No one spoke in favor of allowing potential voters to register to vote on Election Day.
 2. The text implies that all speakers were against Election Day registration.
 3. There is no mention of any arguments for or against Election Day registration in the text.</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"19:33"</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>Just to answer cage a real quick, I think that I don't have a problem with people if they have their ID registering on voting day but I would prefer that it was automatic and as far as vote by mail, I think that they need to allow more time for them to be received past election day especially with all the nonsense that's been going on with the mail. No.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person does not have a problem with people showing ID when registering to vote on voting day.
 2. They prefer that ID verification for voter registration is automatic.
 3. The person thinks that more time should be allowed for vote-by-mail ballots to be received past election day.
 4. They express that their opinion is based on the "nonsense" that has been happening with the mail.
-5. The person says "No" after giving their opinion, but it is unclear what they are responding to.</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
+5. The person says "No" after giving their opinion, which could mean they are responding to a question or statement from someone else.</t>
+        </is>
       </c>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"19:33"</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>Longer getting places in a timely manner.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="n"/>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"20:12"</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>I unfortunately disagree yet again, it would seem to me that because people do know that at times and in certain places the male is problematic, but you simply mail it earlier, a lot of the pros and the cons that I see seem to be stripping people of their their duty to plan and carry through on their plan in order to vote so much.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"20:12"</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Much of it is, it's like a nanny State taking over things for us so that we can accomplish things when we should be accomplishing things ourselves.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Much of the situation is like a nanny State taking over responsibilities.
 2. The nanny State is taking over these responsibilities so that people can accomplish things.
@@ -1415,229 +1472,229 @@
 4. This situation is occurring when people should be completing tasks independently.</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"20:52"</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>I think some states do this is long as it's postmarked by election day. I know that exceptions are made for armed forces overseas. Their ballots. Come in several days if not a week later or whatever. Several of these proposals are done by different states. Some states do not have drop boxes, but I think basically the fact that matter there has been no proven election fraud. I mean, drop boxes have not been shown the fact that some groups May pickup balance.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Some states allow voting as long as the ballot is postmarked by election day.
-2. Exceptions are made for armed forces overseas, who may send their ballots several days or a week after election day.
+2. Exceptions are made for armed forces overseas, who may send their ballots several days or even a week after election day.
 3. Different states have implemented various proposals regarding voting methods.
 4. Some states do not provide drop boxes for ballots.
 5. There has been no proven election fraud related to the use of drop boxes.
 6. There is no evidence to support the claim that certain groups may pick up and tamper with ballots from drop boxes.</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"20:52"</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> That's for other people that there has been, no.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="n"/>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"21:37"</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
+      <c r="D48" s="6" t="n"/>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="n"/>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"21:37"</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>I kind of feel torn about this because I do think that it's really strange that they allow ballots to come in after the actual election day because that kind of makes the election day. It's kind of, I almost feel like what they need to do is kind of have an earlier, like, male needs to be sent by this, like, no later than this date for it to be counted, but of course, that's still going to create limitations.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author finds it strange that ballots can be accepted after election day.
 2. The author suggests that ballots should have a set deadline before election day to be counted.
 3. The author acknowledges that even with a deadline, it would still create limitations.</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"21:37"</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>There's I don't feel like there's really a perfect answer to this one.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>48640</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"22:17"</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>I guess I agree with cage. I think the ballot should be happy in by election day. So I guess person I'm kind of tired of this having election drawn out for a week or so afterwards till we can count all the votes. It didn't used to be that way in my opinion but</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The speaker agrees with Cage.
-2. They believe the ballot should be finalized by election day.
-3. The speaker is growing weary of the election being drawn out for a week or so after election day to count all the votes.
-4. The speaker expresses that in their opinion, elections didn't use to be this way.</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="n"/>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"22:35"</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think like Leah said, you know, have some type of if if you're going to limit it to that, I think you could have some type of submitted by this time. Just so, you know, just so it's there's no light gray area and people know when they actually have to do it you know what I mean? I feel like you still got to give you some type of window.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="n"/>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"22:52"</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
+      <c r="D53" s="6" t="n"/>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"22:52"</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>Yeah. I mean I like the idea of having vote by mail and for a lot of people not just the people that are handicapped and can't get in, I think it just be a nice way to get vote for more people because trying to vote everyone on all in one day is I think it's a difficulty for everybody in the society now. And we just put a thing, you know, like I said, postmarked by three days prior to the election and that counts, after that doesn't count. That's kind of simple.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker likes the idea of having vote by mail.
 2. They believe that vote by mail should be available to more people, not just those who are handicapped.
@@ -1645,357 +1702,372 @@
 4. They propose a system where ballots postmarked three days prior to the election would be counted, while those postmarked after that date would not.</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"23:27"</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>I have to take issue respectfully with what believe it was. Dave said, I think there has been a lot of proof of election fraud in many different manners. What hasn't necessarily been proven in my opinion is whether it made a difference or not. So, some of the things that I do see that might lead to election fraud, that would make a difference prompts my</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n"/>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"23:54"</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"23:54"</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t>Sorry, I forgot what I was going to say. It was about mailing stuff. Yeah, there's definitely election fraud, but I like you were saying it. It hasn't been on a really significant scale and I think it is important to have things in place because there are always going to be some people who try and do things the wrong way, just because they can. But I think having a weather,</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"23:54"</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It's election day or another date, have things postmarked by that date. And that is when it counts, not when it arrives.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"23:54"</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>To be collected because that's the problem with it.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="n"/>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"24:39"</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"24:39"</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>Okay, well, to clarify, there has been, no significant organized election fraud. I mean, it just hasn't happened. There have been people that have voted twice. There, have been people who voted for a dead relative or whatever on an individual basis, but nothing systemic and organized.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n"/>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"25:05"</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>Well, this is the last I'll say because I think this gets into the weeds but I completely disagree with you today and so that's where I'm coming.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"25:20"</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>Feel free to give an anecdote of any any example that you may know.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="n"/>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"25:31"</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>Are you speaking to me?</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I'm here to assist you. To get started, here's a numbered list with one item:
 1. You asked if I'm speaking to you.
 Is there anything else you'd like to discuss or any other information you need help summarizing?</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"25:39"</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t>yep, if you know of any off the top of your head,</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>64</v>
-      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="n"/>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"25:48"</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="D66" s="6" t="inlineStr">
         <is>
           <t>I'm sorry, I forgot to press requests to speak. I live in Arizona and there was actually a lot of election fraud in Arizona, and it was just never proven. It was such that, it made a difference, the election. Some of it was the fact that you get mail in ballots that aren't folded. How do you get a mail-in ballot that? It has no fold on it. Some of it was that people didn't sign their ballots and it went to court and the court agreed with the complainant</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The individual who spoke forgot to request the floor.
 2. They reside in Arizona.
 3. They claim that there was a significant amount of election fraud in Arizona.
 4. They mention that the fraud was never proven.
-5. They believe that the fraud affected the outcome of the election.
+5. They believe that the fraud impacted the outcome of the election.
 6. They provide specific examples of the fraud, including:
 a. Mail-in ballots that were not folded.
 b. Ballots that were not signed by the voter.
 7. They mention that a court case was brought up regarding unsigned ballots and the court sided with the complainant.</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>65</v>
-      </c>
     </row>
     <row r="67" ht="12.5" customHeight="1">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>"25:48"</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> and that that was against the election laws in this state. So those are two two particular examples. We do have a lot of balance that come in by mail. They don't have folds, you have to think there.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
-      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="n"/>
     </row>
     <row r="68" ht="12.5" customHeight="1">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>"26:43"</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69" ht="12.5" customHeight="1">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>"26:43"</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>I don't know if I'm in the minority here, but I feel like online voting would be a great thing, but obviously we have a lot of people out there who know how to manipulate computers and technology and stuff like that, so that would create issues in itself. But I think that, you know, that would definitely, I just love the idea of using technology or figuring out a way to do it with technology.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author thinks online voting is a great idea.
 2. The author is aware of potential issues with online voting, such as manipulation by people who know how to use computers and technology.
@@ -2003,30 +2075,30 @@
 4. The author is interested in finding a way to implement online voting securely.</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="70" ht="12.5" customHeight="1">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>"27:15"</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr">
+      <c r="D70" s="6" t="inlineStr">
         <is>
           <t>I'd love to use technology but I don't trust that it's there's enough fail-safes in it right now. There's too many hackers that are way too good.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person has a positive attitude towards technology.
 2. The person has concerns about the reliability of technology.
@@ -2034,310 +2106,322 @@
 4. The person is worried about the skill level of hackers.</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="71" ht="12.5" customHeight="1">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>"27:26"</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>Yeah, I want a I want a hardcore copy. I wanted paper ballot in my hand. That tells me who I voted for.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person expresses a desire for a "hardcore copy" of something.
 2. They wanted to have a paper ballot in their hand.
 3. The paper ballot is significant to them because it allows them to physically see who they voted for.</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="72" ht="12.5" customHeight="1">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>"27:36"</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>Yeah, I actually. So that's something that I noticed on here because it does say something about producing a paper record of the vote. And I know that whenever I send in my ballot I like take a photo of it and everything because I'm like this is what I voted for because you know, asked me a week later and I'll be like, I don't know what I would've or but I kind of like that idea of there being a kind of a record that can be referred back to. It's just in the case where there's any question about it, how do they actually go about?</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>71</v>
-      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="n"/>
     </row>
     <row r="73" ht="12.5" customHeight="1">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>"27:36"</t>
         </is>
       </c>
-      <c r="C73" s="4" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>Gathering those? I mean is it okay everybody submit your paper records or something?</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>72</v>
-      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n"/>
     </row>
     <row r="74" ht="12.5" customHeight="1">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>"28:26"</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>Yeah, I'm torn on it because I would love technology to work and I want a paper record of it and that right now that doesn't seem to be an efficient way to do that. I mean the point of voting online is to not have to do it in person. But at that point, where's the paperwork record? So it's problematic.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is considering the possibility of voting online.
 2. They have a preference for having a paper record of their vote.
-3. They are uncertain about the efficiency of having a paper record with online voting.
-4. They see the advantage of online voting as the ability to vote without having to do it in person.
-5. They express concern about the lack of a paper record with online voting.
-6. They consider this issue as problematic.</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>73</v>
+3. They are uncertain about the efficiency of creating a paper record while voting online.
+4. They believe that the purpose of online voting is to avoid voting in person.
+5. They see a lack of a paper record as problematic.</t>
+        </is>
       </c>
     </row>
     <row r="75" ht="12.5" customHeight="1">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>"30:00"</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>Me. And my understanding was that, that that federal election did have its own set of rules. I didn't realize that those who are determined by the state but for federal elections, yes, I think there should be a standardized situation that oversees overrules. Now, if States want to have two different methods of of election, one per state and one for federal, it seemed to would be easier if they would just adopt a fellow. The</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>74</v>
-      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="n"/>
     </row>
     <row r="76" ht="12.5" customHeight="1">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>"30:00"</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Um is getting Congress to come up with something that everybody agrees with that. That's, that's the problem right now across the board in any issue here.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>75</v>
-      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="n"/>
     </row>
     <row r="77" ht="12.5" customHeight="1">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>"30:00"</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>76</v>
-      </c>
+      <c r="D77" s="6" t="n"/>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="n"/>
     </row>
     <row r="78" ht="12.5" customHeight="1">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>"30:00"</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>77</v>
-      </c>
+      <c r="D78" s="6" t="n"/>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79" ht="12.5" customHeight="1">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>"30:46"</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>78</v>
-      </c>
+      <c r="D79" s="6" t="n"/>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="n"/>
     </row>
     <row r="80" ht="12.5" customHeight="1">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>"30:46"</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>79</v>
-      </c>
+      <c r="D80" s="6" t="n"/>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="n"/>
     </row>
     <row r="81" ht="12.5" customHeight="1">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>"30:46"</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>I didn't mean to put to push the wrong button here. It's all right.</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>80</v>
-      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="n"/>
     </row>
     <row r="82" ht="12.5" customHeight="1">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>"30:51"</t>
         </is>
       </c>
-      <c r="C82" s="4" t="inlineStr">
+      <c r="D82" s="6" t="inlineStr">
         <is>
           <t>All right, are you, are you done? I am just in general, not in favor of the federal government taking over rights and duties.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker expresses a general disagreement with the federal government taking over rights and duties.
 2. The speaker's disagreement applies to all instances, not just specific ones.
 3. The speaker does not specify any particular rights or duties that they are opposed to the federal government taking over.</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="83" ht="12.5" customHeight="1">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>"31:08"</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>That the constitution does not enumerate. Anything that's not enumerated to the federal government is reserved for the states. I like that system. I think the federal government has too much power as it is and isn't doing very well with the power they have. So I am not in favor of giving them more power.</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The constitution does not enumerate certain powers.
 2. These un enumerated powers are reserved for the states.
@@ -2347,101 +2431,104 @@
 6. The federal government is not handling the power they currently have well.</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="84" ht="12.5" customHeight="1">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>"31:30"</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>83</v>
-      </c>
+      <c r="D84" s="6" t="n"/>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="n"/>
     </row>
     <row r="85" ht="12.5" customHeight="1">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>"31:30"</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
+      <c r="D85" s="6" t="inlineStr">
         <is>
           <t>I I agree that the I don't think that the federal government should be dictating everything at the state level, but I do think that we would benefit from having more parameters and options at the federal level. So maybe maybe more in line with that second Pro where it's the kind of say, okay, these are the options and then each state gets to choose which of those options they use.</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F85" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees that the federal government should not dictate everything at the state level.
 2. The speaker believes that having more parameters and options at the federal level would be beneficial.
 3. The speaker suggests a system similar to the second proposal, where the federal government provides a list of options and each state can choose which to use.</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="86" ht="12.5" customHeight="1">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>"31:58"</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="D86" s="6" t="inlineStr">
         <is>
           <t>Yeah, I like that second bit where they differentiate it from federal rules to Federal standards because I think it does make sense to have standards that each State's voting options live up to so that there's a consistency in what how it's done. And as far as people having the same amount of access and</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>85</v>
-      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="n"/>
     </row>
     <row r="87" ht="12.5" customHeight="1">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="C87" s="6" t="inlineStr">
         <is>
           <t>"31:58"</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="D87" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I don't know, just I think that rural standards would be good as opposed to Federal rules.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker thinks rural standards could be preferable.
 2. The specific rural standards are not mentioned.
@@ -2449,145 +2536,150 @@
 4. The reasons for this preference are not provided.</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="88" ht="12.5" customHeight="1">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>"32:33"</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="D88" s="6" t="inlineStr">
         <is>
           <t>I just want to make a comment about the government issued photo ID to vote. I personally, I think it's okay but I think there will be an issue with it when it comes to meal in balance and</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>87</v>
-      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89" ht="12.5" customHeight="1">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>"32:33"</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I think, you know, just creates a different animal for voting if you require an ID for mailing Valance,</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>88</v>
-      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="n"/>
     </row>
     <row r="90" ht="12.5" customHeight="1">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="C90" s="6" t="inlineStr">
         <is>
           <t>"33:06"</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think I mean, by default the federal government has been forced to step into the Voting Rights Rights Act and and because states have not been fair in the way. They've been allowing people to vote the federal government has been forced to have to set standards and and sometimes they have to pass laws to do it. I mean, not just an unfortunate reaction to the</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>89</v>
-      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="n"/>
     </row>
     <row r="91" ht="12.5" customHeight="1">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>"33:06"</t>
         </is>
       </c>
-      <c r="C91" s="4" t="inlineStr">
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>Situation here.</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>90</v>
-      </c>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F91" s="6" t="n"/>
     </row>
     <row r="92" ht="12.5" customHeight="1">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>"33:47"</t>
         </is>
       </c>
-      <c r="C92" s="4" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t>I feel like that the photo ID thing is kind of weird here, because it's</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>91</v>
-      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="n"/>
     </row>
     <row r="93" ht="12.5" customHeight="1">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="C93" s="6" t="inlineStr">
         <is>
           <t>"33:47"</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
+      <c r="D93" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I think it really depends on how you're actually voting, because of course, like you said, with a mail-in ballot, how does that even work? How do you provide a proof of ID, ID or proof of citizenship with that? And as, as a naturalized citizen myself, I like would have to dig around and try and find my my like proof of citizenship and my passport and whatever. I know that several people, I know that were even born here. Don't have passports or anything, so they would have to obtain.</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The feasibility of voting depends on the voting method.
 2. Mail-in ballots require a way to provide proof of ID and citizenship.
@@ -2596,159 +2688,163 @@
 5. These individuals would need to obtain proof of citizenship for mail-in ballots.</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="94" ht="12.5" customHeight="1">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>"33:47"</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
+      <c r="D94" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> In some sort of ID, what that would look like? I would be curious.</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>93</v>
-      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="n"/>
     </row>
     <row r="95" ht="12.5" customHeight="1">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>"34:37"</t>
         </is>
       </c>
-      <c r="C95" s="4" t="inlineStr">
+      <c r="D95" s="6" t="inlineStr">
         <is>
           <t>Is this an ongoing problem? I mean, I live in New York. I live downstate, New York. And every year I get from, from the, from my voting district, a card that tells me where I'm vote and that's been going on for 15, 20 years now. So, I think it's a one-time issue. I mean, once you registered to vote, I mean, I understand if you're moving then you have to go through it all again, but but it shouldn't be that difficult.</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>94</v>
-      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="n"/>
     </row>
     <row r="96" ht="12.5" customHeight="1">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>"35:10"</t>
         </is>
       </c>
-      <c r="C96" s="4" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
         <is>
           <t>Yeah, I can imagine it being because I definitely don't have anything like that, but, you know, if it's going to be government-issued with photo ID, whether it's, you know, a new form of ID that they actually give you as soon as you register to vote, or maybe it's even something that's on your your driver's license or something that says, register to vote.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is discussing the possibility of a new form of government-issued photo ID.
 2. This ID would be used for registering to vote.
 3. The ID could be a separate card that the government gives to people when they register to vote.
-4. Alternatively, the ID could be incorporated into existing documents, such as driver's licenses.</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>95</v>
+4. Alternatively, the ID could be incorporated into existing documents, such as driver's licenses.
+5. The purpose of this ID would be to verify that individuals are registered to vote.</t>
+        </is>
       </c>
     </row>
     <row r="97" ht="12.5" customHeight="1">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>"35:10"</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="D97" s="6" t="inlineStr">
         <is>
           <t>I'm a citizen.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>96</v>
-      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="n"/>
     </row>
     <row r="98" ht="12.5" customHeight="1">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>"36:09"</t>
         </is>
       </c>
-      <c r="C98" s="4" t="inlineStr">
+      <c r="D98" s="6" t="inlineStr">
         <is>
           <t>I think as long as somebody's felony wasn't related to voting fraud or stealing someone's ID, you know stealing, you know what I mean by that, that people should be allowed to regain their ability to vote after they have served their time.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The individual believes that people who have committed felonies unrelated to voting fraud or stealing identities should be allowed to regain their voting ability.
 2. This permission to regain voting ability should be granted after the person has served their time.</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="99" ht="12.5" customHeight="1">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B99" s="4" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>"36:32"</t>
         </is>
       </c>
-      <c r="C99" s="4" t="inlineStr">
+      <c r="D99" s="6" t="inlineStr">
         <is>
           <t>Yeah, definitely I agree with that point, you know, once they've already gone through and they've already paid their time and they're going to come back and I feel like they still have a say, maybe you could make a case, some type of, you know, depending on what type of crime it was. But yeah, I don't see why. Why that would be a problem.</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F99" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with a point made previously.
 2. They believe that if someone has already paid their time for a crime, they should still have a say in certain matters.
@@ -2756,71 +2852,74 @@
 4. The speaker sees no issue with this proposal.</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="100" ht="12.5" customHeight="1">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B100" s="4" t="inlineStr">
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>"36:50"</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>99</v>
-      </c>
+      <c r="D100" s="6" t="n"/>
+      <c r="E100" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F100" s="6" t="n"/>
     </row>
     <row r="101" ht="12.5" customHeight="1">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B101" s="4" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>"36:50"</t>
         </is>
       </c>
-      <c r="C101" s="4" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>I would definitely lean more toward a case-by-case.</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>100</v>
-      </c>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F101" s="6" t="n"/>
     </row>
     <row r="102" ht="12.5" customHeight="1">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B102" s="4" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>"36:50"</t>
         </is>
       </c>
-      <c r="C102" s="4" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Decision on this because I think there are some people that when they make certain decisions, they give up all their rights or they should give up all their rights because that like I mean I probably have pretty strong opinions on the matter in general anyway but I definitely would lean more toward case-by-case. Depending on the crime, they committed.</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F102" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker believes that some people, when making certain decisions, may give up all their rights.
 2. The speaker thinks they should give up all their rights, depending on the crime they committed.
@@ -2828,227 +2927,233 @@
 4. The speaker leans more toward a case-by-case decision.</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>101</v>
-      </c>
     </row>
     <row r="103" ht="12.5" customHeight="1">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B103" s="4" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>"37:19"</t>
         </is>
       </c>
-      <c r="C103" s="4" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>I think if they paid the price for that crime, that should be allowed to vote. Because think about all those people out there who have committed crimes to have not been copped, but they are just as guilty.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F103" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes that if someone pays the price for committing a crime, they should be allowed to vote.
 2. This belief is based on the idea that there are many people who have committed crimes but have not been caught, who are just as guilty as those who have been caught and punished.</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>102</v>
-      </c>
     </row>
     <row r="104" ht="12.5" customHeight="1">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B104" s="4" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>"37:34"</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>103</v>
-      </c>
+      <c r="D104" s="6" t="n"/>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F104" s="6" t="n"/>
     </row>
     <row r="105" ht="12.5" customHeight="1">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B105" s="4" t="inlineStr">
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>"37:34"</t>
         </is>
       </c>
-      <c r="C105" s="4" t="inlineStr">
+      <c r="D105" s="6" t="inlineStr">
         <is>
           <t>I agree with Peter that we there are certain crimes maybe say that. Yeah, they definitely lost their right. But anyone else who's paid their dues and gone to prison? They probably should be some way for them to regain their voting rights.</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The speaker agrees with Peter about taking away the voting rights of certain criminals.
-2. The speaker believes that people who have been to prison and "paid their dues" should have a way to regain their voting rights.</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>104</v>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F105" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker agrees with Peter about certain criminals losing their right to vote.
+2. The speaker believes that there should be a way for criminals who have served their time in prison to regain their voting rights.</t>
+        </is>
       </c>
     </row>
     <row r="106" ht="12.5" customHeight="1">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B106" s="4" t="inlineStr">
+      <c r="C106" s="6" t="inlineStr">
         <is>
           <t>"37:52"</t>
         </is>
       </c>
-      <c r="C106" s="4" t="inlineStr">
+      <c r="D106" s="6" t="inlineStr">
         <is>
           <t>I tend to agree with Heather, I'm torn on this one. I do believe there are certain crimes that are so heinous and so barbaric and non-human that the person should be deprived of all their rights. I don't think you can ever pay back your debt, quote, unquote, just Society for certain crimes? However, for others. I think you can. So although I don't like the date Case by case,</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>105</v>
-      </c>
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F106" s="6" t="n"/>
     </row>
     <row r="107" ht="12.5" customHeight="1">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B107" s="4" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
         <is>
           <t>"37:52"</t>
         </is>
       </c>
-      <c r="C107" s="4" t="inlineStr">
+      <c r="D107" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Basis in, in how it would function, I think theoretically that would be the best way.</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>106</v>
-      </c>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F107" s="6" t="n"/>
     </row>
     <row r="108" ht="12.5" customHeight="1">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B108" s="4" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
         <is>
           <t>"38:28"</t>
         </is>
       </c>
-      <c r="C108" s="4" t="inlineStr">
+      <c r="D108" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think I think ultimately it comes down to our system in general right now. I think there are a lot of ways that we could improve the judicial system and like specifically even you know what's considered a felony versus why isn't considered a felony and how we treat certain crimes because some crimes I would argue are not treated as they should be. And I'm sure that a lot of people would agree with me on that, that a lot of people get much harsher punishments than they,</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>107</v>
-      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F108" s="6" t="n"/>
     </row>
     <row r="109" ht="12.5" customHeight="1">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B109" s="4" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>"38:28"</t>
         </is>
       </c>
-      <c r="C109" s="4" t="inlineStr">
+      <c r="D109" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Should and likewise, you know, some people don't get as harsh punishments as they should so the whole system needs to be fixed.</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F109" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. There is a belief that some people do not receive the appropriate level of punishment.
 2. The system that metes out punishments needs to be fixed.</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>108</v>
-      </c>
     </row>
     <row r="110" ht="12.5" customHeight="1">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B110" s="4" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>"40:50"</t>
         </is>
       </c>
-      <c r="C110" s="4" t="inlineStr">
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t>I really like the idea of the random audit or random sample audits. I think that that would definitely help people be more confident in the system.</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>109</v>
-      </c>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F110" s="6" t="n"/>
     </row>
     <row r="111" ht="12.5" customHeight="1">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B111" s="4" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>"41:02"</t>
         </is>
       </c>
-      <c r="C111" s="4" t="inlineStr">
+      <c r="D111" s="6" t="inlineStr">
         <is>
           <t>I, I like the idea of having criminal Palin penalties for the misleading deceiving or intimidating people.</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F111" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker expresses support for the idea of having penalties for criminal behavior committed by a figure like Sarah Palin.
 2. The criminal behavior in question involves misleading, deceiving, or intimidating people.
@@ -3056,30 +3161,30 @@
 4. The text suggests that the speaker believes that Palin has engaged in this behavior, but it does not provide any evidence or proof.</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="112" ht="12.5" customHeight="1">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>"41:02"</t>
         </is>
       </c>
-      <c r="C112" s="4" t="inlineStr">
+      <c r="D112" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I it makes sense to have people observing as long as they're just observing, I'm not sure about having representatives of political parties and other groups challenging voters while they're trying to vote that sounds like harassment to me, it happens in places, it's happened. Historically and it has never been</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F112" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The idea of having people observing the voting process is acceptable, as long as they are only observing.
 2. The presence of representatives of political parties and other groups challenging voters during the voting process is not supported, as it is seen as harassment.
@@ -3087,128 +3192,131 @@
 4. This kind of behavior, challenging voters during the voting process, has never been acceptable.</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>111</v>
-      </c>
     </row>
     <row r="113" ht="12.5" customHeight="1">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B113" s="4" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>"41:02"</t>
         </is>
       </c>
-      <c r="C113" s="4" t="inlineStr">
+      <c r="D113" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fair, as far as the voters go.</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>112</v>
-      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F113" s="6" t="n"/>
     </row>
     <row r="114" ht="12.5" customHeight="1">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>"41:43"</t>
         </is>
       </c>
-      <c r="C114" s="4" t="inlineStr">
+      <c r="D114" s="6" t="inlineStr">
         <is>
           <t>Yeah, speak on that point. I don't think I don't know how I feel about having representatives there in general. I don't think it's necessarily bad. I feel like people that go there already, kind of have an idea of what they want to do and you know, it</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>113</v>
-      </c>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F114" s="6" t="n"/>
     </row>
     <row r="115" ht="12.5" customHeight="1">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B115" s="4" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>"41:43"</t>
         </is>
       </c>
-      <c r="C115" s="4" t="inlineStr">
+      <c r="D115" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> As long as like you said, they're not harassing others. You know, I don't think that's too bad and I agree that I think it could just create room for there to be like Prejudice or something. If they try to discourage people are called, like, call attention to someone who they think might not be valid.</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>114</v>
-      </c>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F115" s="6" t="n"/>
     </row>
     <row r="116" ht="12.5" customHeight="1">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="n">
         <v>48666</v>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
         <is>
           <t>"42:16"</t>
         </is>
       </c>
-      <c r="C116" s="4" t="inlineStr">
+      <c r="D116" s="6" t="inlineStr">
         <is>
           <t>I don't think that represents this from any kind of political party should be able to detect whether someone's eligible to vote to me, that's just contradictory to having the right to vote.</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The speaker believes that detecting someone's eligibility to vote should not be done by any political party.
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker believes that detecting someone's eligibility to vote should not be done by any group associated with a political party.
 2. They see this as contradictory to the right to vote.</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>115</v>
-      </c>
     </row>
     <row r="117" ht="12.5" customHeight="1">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B117" s="4" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
         <is>
           <t>"42:35"</t>
         </is>
       </c>
-      <c r="C117" s="4" t="inlineStr">
+      <c r="D117" s="6" t="inlineStr">
         <is>
           <t>Yeah, that the idea of having somebody challenge somebody who's there seems very strange. I don't think we need more more criminal penalties. I think that we already have those in place so I don't know why we would need more of them. There's already penalties for interfering with voting and such the audit that might make some people feel better.</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F117" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The idea of having someone challenge a present individual seems strange to the speaker.
 2. The speaker does not believe that there is a need for more criminal penalties, as they think there are already sufficient penalties in place.
@@ -3216,196 +3324,203 @@
 4. The speaker mentions an audit that might make some people feel better.</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="118" ht="12.5" customHeight="1">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>"42:35"</t>
         </is>
       </c>
-      <c r="C118" s="4" t="inlineStr">
+      <c r="D118" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I don't think it gained a whole lot, but I think it might make people feel better.</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>117</v>
-      </c>
+      <c r="E118" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F118" s="6" t="n"/>
     </row>
     <row r="119" ht="12.5" customHeight="1">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B119" s="4" t="inlineStr">
+      <c r="C119" s="6" t="inlineStr">
         <is>
           <t>"43:10"</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>118</v>
-      </c>
+      <c r="D119" s="6" t="n"/>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F119" s="6" t="n"/>
     </row>
     <row r="120" ht="12.5" customHeight="1">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>"43:10"</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="D120" s="6" t="inlineStr">
         <is>
           <t>Yes, I don't know how it is in other states, but in New York, poll workers for every Republican. There's a Democrat. I mean and they have to make decisions together what concerns me about this proposal here is when it says other groups. So who are these other groups? I mean, yes, that sounds very intimidating to me and I think in some areas it's meant to be but</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>119</v>
-      </c>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F120" s="6" t="n"/>
     </row>
     <row r="121" ht="12.5" customHeight="1">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B121" s="4" t="inlineStr">
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>"43:10"</t>
         </is>
       </c>
-      <c r="C121" s="4" t="inlineStr">
+      <c r="D121" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I think basically things have worked fairly well. I mean, as polarized as we are now, my understanding and statements have been that that 20/20 election was what one of the fairest.</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>120</v>
-      </c>
+      <c r="E121" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F121" s="6" t="n"/>
     </row>
     <row r="122" ht="12.5" customHeight="1">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="n">
         <v>48640</v>
       </c>
-      <c r="B122" s="4" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>"43:55"</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>121</v>
-      </c>
+      <c r="D122" s="6" t="n"/>
+      <c r="E122" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F122" s="6" t="n"/>
     </row>
     <row r="123" ht="12.5" customHeight="1">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="n">
         <v>48640</v>
       </c>
-      <c r="B123" s="4" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>"43:55"</t>
         </is>
       </c>
-      <c r="C123" s="4" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>I agree with Dave, I think the polling people are trained and they should be able to handle anything, that's I don't think there should be. I think the whole polling place should be a safe place to go. You don't have to worry about being intimidated or being harassed or tried to perceive that, you need to vote a certain way. I think it should be, you know, a safe place for everybody that's going to vote.</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="E123" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with Dave's opinion.
 2. The speaker believes that polling place staff are well-trained.
 3. The speaker thinks that the polling place should be a safe environment.
-4. The speaker asserts that voters should not feel intimidated or harassed.
+4. The speaker asserts that voters should not feel intimidated or harassed while voting.
 5. The speaker emphasizes that the polling place should be a safe space for all voters.</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>122</v>
-      </c>
     </row>
     <row r="124" ht="12.5" customHeight="1">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B124" s="4" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>"44:21"</t>
         </is>
       </c>
-      <c r="C124" s="4" t="inlineStr">
+      <c r="D124" s="6" t="inlineStr">
         <is>
           <t>yeah, I agree with, with both Dave and Tom that, I think that</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with the opinions of both Dave and Tom.
 2. The speaker thinks that those opinions are correct.</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>123</v>
-      </c>
     </row>
     <row r="125" ht="12.5" customHeight="1">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B125" s="4" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>"44:21"</t>
         </is>
       </c>
-      <c r="C125" s="4" t="inlineStr">
+      <c r="D125" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It should be kind of I have personally just don't like the idea of going to a polling place which also I much prefer the idea of voting online or mail-in ballot myself. Just because I'm a homebody and I never want to leave my house but like it I don't like the idea of going to a place especially if there were going to be representatives from political parties there to try and like influence my decision. I would rather just go in and be surrounded by a bunch of people who are just like, yep, we're just taking ballots, like let us know if you need.</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F125" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person expresses their personal dislike for going to a polling place.
 2. They prefer voting online or through mail-in ballots.
@@ -3414,151 +3529,155 @@
 5. They prefer an environment where the people are just taking ballots and providing assistance if needed.</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>124</v>
-      </c>
     </row>
     <row r="126" ht="12.5" customHeight="1">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B126" s="4" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
         <is>
           <t>"44:21"</t>
         </is>
       </c>
-      <c r="C126" s="4" t="inlineStr">
+      <c r="D126" s="6" t="inlineStr">
         <is>
           <t>Need any help with the ballot or whatever?</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>125</v>
-      </c>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127" ht="12.5" customHeight="1">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B127" s="4" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>"45:03"</t>
         </is>
       </c>
-      <c r="C127" s="4" t="inlineStr">
+      <c r="D127" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree with Tom that when you vote in person, it should be a safe space. I definitely prefer mail in ballots but yeah, if you're going in person, it should be a safe space to vote.</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F127" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The user agrees with Tom that voting in person should take place in a safe space.
 2. The user prefers mail-in ballots for voting.</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>126</v>
-      </c>
     </row>
     <row r="128" ht="12.5" customHeight="1">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B128" s="4" t="inlineStr">
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>"45:17"</t>
         </is>
       </c>
-      <c r="C128" s="4" t="inlineStr">
+      <c r="D128" s="6" t="inlineStr">
         <is>
           <t>I agreed that there should be not any interference from observers. If there are observers which I actually am in favor of observers, then they need to be evenly divided between the political parties. If that's what The Observers are from. I'm not would not be happy about other groups observing not knowing who these other groups are. But I think it would be horrible if someone would try to prove them.</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>127</v>
-      </c>
+      <c r="E128" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F128" s="6" t="n"/>
     </row>
     <row r="129" ht="12.5" customHeight="1">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B129" s="4" t="inlineStr">
+      <c r="C129" s="6" t="inlineStr">
         <is>
           <t>"45:17"</t>
         </is>
       </c>
-      <c r="C129" s="4" t="inlineStr">
+      <c r="D129" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Someone from voting, that isn't the point of observers to me. And I like the idea of the audits. I think that's smart.</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>128</v>
-      </c>
+      <c r="E129" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F129" s="6" t="n"/>
     </row>
     <row r="130" ht="12.5" customHeight="1">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B130" s="4" t="inlineStr">
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>"46:18"</t>
         </is>
       </c>
-      <c r="C130" s="4" t="inlineStr">
+      <c r="D130" s="6" t="inlineStr">
         <is>
           <t>I guess I just wanted to add there. I agree. There are a lot of penalties for intimidating eligible. Voters from voting. I don't see that we would need any more laws, but I think that we might need more enforcement of our current laws.</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>129</v>
-      </c>
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F130" s="6" t="n"/>
     </row>
     <row r="131" ht="12.5" customHeight="1">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B131" s="4" t="inlineStr">
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>"47:56"</t>
         </is>
       </c>
-      <c r="C131" s="4" t="inlineStr">
+      <c r="D131" s="6" t="inlineStr">
         <is>
           <t>From a foundational matter. I really don't understand why political campaigns cost so much. I mean, it squeezes out. People who are pretty much middle class as a general rule. Of course not always. So before we even would talk about how to fund an election, I would be in favor of changing some of the rules about how much you can actually spend on an election because I think it's just obscene</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F131" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the high cost of political campaigns.
 2. The high cost of campaigns is criticized for squeezing out middle class candidates.
@@ -3566,53 +3685,54 @@
 4. The speaker finds the amount of money spent on campaigns to be obscene.</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>130</v>
-      </c>
     </row>
     <row r="132" ht="12.5" customHeight="1">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B132" s="4" t="inlineStr">
+      <c r="C132" s="6" t="inlineStr">
         <is>
           <t>"47:56"</t>
         </is>
       </c>
-      <c r="C132" s="4" t="inlineStr">
+      <c r="D132" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> That we can spend hundreds of millions of dollars, not we, but the candidates on an election, which pretty well ensures that an awful, lot of people who are serving in our federal government are already very well off.</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>131</v>
-      </c>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F132" s="6" t="n"/>
     </row>
     <row r="133" ht="12.5" customHeight="1">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B133" s="4" t="inlineStr">
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>"48:41"</t>
         </is>
       </c>
-      <c r="C133" s="4" t="inlineStr">
+      <c r="D133" s="6" t="inlineStr">
         <is>
           <t>Yeah I I agree with you that the is way too much money being spent. I think most of it's in advertising a various kinds but yeah the adequate funding would be great but I think it should be for the actual voting process not for the campaigning process and I think the money that's in campaigning needs to be changed significantly in limited.</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F133" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the issue of too much money being spent.
 2. The majority of the money is spent on advertising of various kinds.
@@ -3620,133 +3740,135 @@
 4. The amount of money in campaigning needs to be changed and significantly limited.</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="134" ht="12.5" customHeight="1">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B134" s="4" t="inlineStr">
+      <c r="C134" s="6" t="inlineStr">
         <is>
           <t>"49:11"</t>
         </is>
       </c>
-      <c r="C134" s="4" t="inlineStr">
+      <c r="D134" s="6" t="inlineStr">
         <is>
           <t>Oh yeah. Okay. I thought you had more to say that I was going to just going to say I think that this is speaking specifically on doing the elections but I agree that the campaigning, you know, that's kind of crazy and it does give the upper class an advantage there, but at the same time, you know, that advertisement is how you get your name out there. So I don't know a great work around or around that, I'm not really sure. But as far as this point, I think that it should be a congress, partially congresses.</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text discusses the topic of elections and the role of campaigning.
-2. The speaker agrees that campaigning, which often involves advertising, can give an advantage to the upper class.
-3. However, the speaker also acknowledges that advertisement is necessary for candidates to make their names known to voters.
-4. The speaker does not suggest a solution to the issue of the upper class's advantage in campaigning.
-5. The speaker believes that elections should be partially managed by congresses.</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>133</v>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The text discusses the topic of elections and agrees that campaigning can be crazy, giving an advantage to the upper class.
+2. It is noted that advertisement is necessary to get one's name out there during campaigns.
+3. The speaker is unsure of a good workaround for the upper class advantage in campaigning.
+4. The speaker suggests that elections should be partially handled by congresses.</t>
+        </is>
       </c>
     </row>
     <row r="135" ht="12.5" customHeight="1">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B135" s="4" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
         <is>
           <t>"49:11"</t>
         </is>
       </c>
-      <c r="C135" s="4" t="inlineStr">
+      <c r="D135" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Responsibility for, you know, making sure these elections are funded to the states.</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F135" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The responsibility being discussed is related to funding elections.
 2. This funding is directed towards states.
 3. The elections mentioned are presumably national or state-level elections.</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>134</v>
-      </c>
     </row>
     <row r="136" ht="12.5" customHeight="1">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B136" s="4" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
         <is>
           <t>"49:47"</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>135</v>
-      </c>
+      <c r="D136" s="6" t="n"/>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137" ht="12.5" customHeight="1">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B137" s="4" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>"49:47"</t>
         </is>
       </c>
-      <c r="C137" s="4" t="inlineStr">
+      <c r="D137" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree with pretty much everything that's been said. I feel like</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>136</v>
-      </c>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="n"/>
     </row>
     <row r="138" ht="12.5" customHeight="1">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B138" s="4" t="inlineStr">
+      <c r="C138" s="6" t="inlineStr">
         <is>
           <t>"49:47"</t>
         </is>
       </c>
-      <c r="C138" s="4" t="inlineStr">
+      <c r="D138" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The funding specifically for the elections, for the equipment and stuff, like, that should come from Congress, because I think that that would be a very silly thing. Well, I could see very easily certain States being like, yep. We got the, the best infrastructure. We've got all this money. We can do all this, and then other states maybe being like, we can't afford to put, put this money in. And I think that that's something that at a minimum for voting, for the federal elections, that, that should come from the federal level,</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F138" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Funding for election equipment and supplies should come from Congress.
 2. The speaker believes it would be inappropriate for states to fund these expenses independently.
@@ -3754,48 +3876,50 @@
 4. For federal elections, funding for voting infrastructure should be provided at the federal level.</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>137</v>
-      </c>
     </row>
     <row r="139" ht="12.5" customHeight="1">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B139" s="4" t="inlineStr">
+      <c r="C139" s="6" t="inlineStr">
         <is>
           <t>"49:47"</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>138</v>
-      </c>
+      <c r="D139" s="6" t="n"/>
+      <c r="E139" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F139" s="6" t="n"/>
     </row>
     <row r="140" ht="12.5" customHeight="1">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B140" s="4" t="inlineStr">
+      <c r="C140" s="6" t="inlineStr">
         <is>
           <t>"50:30"</t>
         </is>
       </c>
-      <c r="C140" s="4" t="inlineStr">
+      <c r="D140" s="6" t="inlineStr">
         <is>
           <t>Maybe it's a question of the minimum requirements of what the equipment has to be. And if the state cannot Supply that in, the government should help step in say, hey, this is the minimum you need and will help fund it.</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="E140" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F140" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The minimum requirements of what the equipment should be might be a question.
 2. If the state cannot supply this minimum, it is the government's responsibility to step in.
@@ -3803,225 +3927,232 @@
 4. The government should assist in funding the supply of the minimum requirements.</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>139</v>
-      </c>
     </row>
     <row r="141" ht="12.5" customHeight="1">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B141" s="4" t="inlineStr">
+      <c r="C141" s="6" t="inlineStr">
         <is>
           <t>"50:45"</t>
         </is>
       </c>
-      <c r="C141" s="4" t="inlineStr">
+      <c r="D141" s="6" t="inlineStr">
         <is>
           <t>I like that idea.</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>140</v>
-      </c>
+      <c r="E141" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F141" s="6" t="n"/>
     </row>
     <row r="142" ht="12.5" customHeight="1">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B142" s="4" t="inlineStr">
+      <c r="C142" s="6" t="inlineStr">
         <is>
           <t>"50:50"</t>
         </is>
       </c>
-      <c r="C142" s="4" t="inlineStr">
+      <c r="D142" s="6" t="inlineStr">
         <is>
           <t>I really don't like the idea of a chief electoral officer, being a non elected position and making it a professional quote-unquote position. I think that's antithetical to our system and I am not in favor of people who stay in office to become a quote, professional overseer of the</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The author expresses their dislike for the concept of a chief electoral officer being a non-elected position.
+      <c r="E142" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F142" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The author expresses their dislike for the concept of a chief electoral officer as a non-elected position.
 2. They believe this idea is contrary to the system of democracy.
-3. The author is against the notion of people staying in office to become professional overseers of elections.</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>141</v>
+3. The author is against the notion of individuals becoming professional overseers of the electoral process by remaining in office for extended periods.</t>
+        </is>
       </c>
     </row>
     <row r="143" ht="12.5" customHeight="1">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B143" s="4" t="inlineStr">
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>"50:50"</t>
         </is>
       </c>
-      <c r="C143" s="4" t="inlineStr">
+      <c r="D143" s="6" t="inlineStr">
         <is>
           <t>Government. And that would include an election officer who is not elected.</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>142</v>
-      </c>
+      <c r="E143" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F143" s="6" t="n"/>
     </row>
     <row r="144" ht="12.5" customHeight="1">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B144" s="4" t="inlineStr">
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>"51:35"</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>143</v>
-      </c>
+      <c r="D144" s="6" t="n"/>
+      <c r="E144" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F144" s="6" t="n"/>
     </row>
     <row r="145" ht="12.5" customHeight="1">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B145" s="4" t="inlineStr">
+      <c r="C145" s="6" t="inlineStr">
         <is>
           <t>"51:35"</t>
         </is>
       </c>
-      <c r="C145" s="4" t="inlineStr">
+      <c r="D145" s="6" t="inlineStr">
         <is>
           <t>I kind of agree. I feel like it's kind of difficult to remove politics for many individual anyway, because I mean anyone could say, 'oh, I'm, you know, non-partisan or oh, I'm like super in the middle or whatever but it also I think is important that this person is is a professional and good at doing what the job is versus having lots of personal interest in the matter.</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F145" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person making the statement agrees that it is difficult to remove politics from many individuals.
 2. They believe that it is important for a person to be a professional and good at their job, rather than having personal interests in the matter.
 3. The person also mentions that anyone can claim to be non-partisan or in the middle, but it is not always the case.</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>144</v>
-      </c>
     </row>
     <row r="146" ht="12.5" customHeight="1">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B146" s="4" t="inlineStr">
+      <c r="C146" s="6" t="inlineStr">
         <is>
           <t>"52:05"</t>
         </is>
       </c>
-      <c r="C146" s="4" t="inlineStr">
+      <c r="D146" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think I think your last point was really important lie about having someone who has some level of training and knowledge and they're not just elected, but they're actually competent on top of that. They have the idea of someone who's professionally and charge sounds kind of disturbing. And I like the idea of having the voters, have a say in who the Electoral officers are not just random people.</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F146" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is important to have someone in charge of elections who has a certain level of training and knowledge, not just someone who is elected.
-2. The idea of having a professional in charge of elections, as opposed to a random person, is a good one.
+2. The idea of having a professional in charge of elections, rather than a random person, is a good one.
 3. Voters should have a say in who the electoral officers are.</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>145</v>
-      </c>
     </row>
     <row r="147" ht="12.5" customHeight="1">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B147" s="4" t="inlineStr">
+      <c r="C147" s="6" t="inlineStr">
         <is>
           <t>"52:05"</t>
         </is>
       </c>
-      <c r="C147" s="4" t="inlineStr">
+      <c r="D147" s="6" t="inlineStr">
         <is>
           <t>All appointing. Somebody political to do it.</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>146</v>
-      </c>
+      <c r="E147" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F147" s="6" t="n"/>
     </row>
     <row r="148" ht="12.5" customHeight="1">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B148" s="4" t="inlineStr">
+      <c r="C148" s="6" t="inlineStr">
         <is>
           <t>"52:41"</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>147</v>
-      </c>
+      <c r="D148" s="6" t="n"/>
+      <c r="E148" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F148" s="6" t="n"/>
     </row>
     <row r="149" ht="12.5" customHeight="1">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B149" s="4" t="inlineStr">
+      <c r="C149" s="6" t="inlineStr">
         <is>
           <t>"52:41"</t>
         </is>
       </c>
-      <c r="C149" s="4" t="inlineStr">
+      <c r="D149" s="6" t="inlineStr">
         <is>
           <t>Yeah, I'm not sure how this this this relates to, to my concern here. But partisan election workers, people that have been elected to that position or appointed have been threatened, physically, and how do you stop that? I mean, good people that that know, the job have resigned and had to stop doing it for fear of their lives. I just think that's a pretty critical issue that really needs to be.</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F149" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Existence of threats to partisan election workers.
 2. Threats are physical and have caused good election workers to resign.
@@ -4029,99 +4160,102 @@
 4. This issue requires urgent attention and resolution.</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>148</v>
-      </c>
     </row>
     <row r="150" ht="12.5" customHeight="1">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B150" s="4" t="inlineStr">
+      <c r="C150" s="6" t="inlineStr">
         <is>
           <t>"52:41"</t>
         </is>
       </c>
-      <c r="C150" s="4" t="inlineStr">
+      <c r="D150" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Resolved. However,</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>149</v>
-      </c>
+      <c r="E150" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F150" s="6" t="n"/>
     </row>
     <row r="151" ht="12.5" customHeight="1">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B151" s="4" t="inlineStr">
+      <c r="C151" s="6" t="inlineStr">
         <is>
           <t>"53:19"</t>
         </is>
       </c>
-      <c r="C151" s="4" t="inlineStr">
+      <c r="D151" s="6" t="inlineStr">
         <is>
           <t>Part of me like keeps going back to the whole. The problem here is that we have a very split bipartisan political system and if there were more like support for the non bipartisan system that you would end up with people with varying opinions, that wouldn't be so divided and it would lessen those issues. Of course. Like assuming that we stuck with this very strong bipartisan system is a strong like strongly</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>150</v>
-      </c>
+      <c r="E151" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F151" s="6" t="n"/>
     </row>
     <row r="152" ht="12.5" customHeight="1">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B152" s="4" t="inlineStr">
+      <c r="C152" s="6" t="inlineStr">
         <is>
           <t>"53:19"</t>
         </is>
       </c>
-      <c r="C152" s="4" t="inlineStr">
+      <c r="D152" s="6" t="inlineStr">
         <is>
           <t>Artisan. Then I think you're going to continue having that type of issue.</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>151</v>
-      </c>
+      <c r="E152" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F152" s="6" t="n"/>
     </row>
     <row r="153" ht="12.5" customHeight="1">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B153" s="4" t="inlineStr">
+      <c r="C153" s="6" t="inlineStr">
         <is>
           <t>"53:55"</t>
         </is>
       </c>
-      <c r="C153" s="4" t="inlineStr">
+      <c r="D153" s="6" t="inlineStr">
         <is>
           <t>I completely agree with you Leah and additionally. It, I think it's on topic but it was not addressed in any right, hard materials. I think there is a huge problem with the media and when you talk about swaying and misleading and communicating about elections or about candidates, I think the media Bears, a lot of blame for the partisanship that we have in the country right now.</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with Leah's point.
 2. The speaker believes that the topic is relevant but was not adequately addressed in any substantial materials.
@@ -4129,53 +4263,54 @@
 4. The media is held responsible for swaying, misleading, and communicating about elections and candidates in a way that contributes to this partisanship.</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>152</v>
-      </c>
     </row>
     <row r="154" ht="12.5" customHeight="1">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="6" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B154" s="4" t="inlineStr">
+      <c r="C154" s="6" t="inlineStr">
         <is>
           <t>"54:28"</t>
         </is>
       </c>
-      <c r="C154" s="4" t="inlineStr">
+      <c r="D154" s="6" t="inlineStr">
         <is>
           <t>I agree with that completely.</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>153</v>
-      </c>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F154" s="6" t="n"/>
     </row>
     <row r="155" ht="12.5" customHeight="1">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B155" s="4" t="inlineStr">
+      <c r="C155" s="6" t="inlineStr">
         <is>
           <t>"54:33"</t>
         </is>
       </c>
-      <c r="C155" s="4" t="inlineStr">
+      <c r="D155" s="6" t="inlineStr">
         <is>
           <t>And that goes back to the campaigning funding because it's always, you know, this spot. This was paid by this sponsor or whatever. So, you know it's still Whoever has more money is getting their information out in favor of themselves, or putting down someone else at the same time.</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The topic is related to campaign funding.
 2. Campaigns are often funded by sponsors.
@@ -4183,99 +4318,102 @@
 4. More money can lead to more information being disseminated, which may be self-serving or negative about an opponent.</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>154</v>
-      </c>
     </row>
     <row r="156" ht="12.5" customHeight="1">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="6" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B156" s="4" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
         <is>
           <t>"54:52"</t>
         </is>
       </c>
-      <c r="C156" s="4" t="inlineStr">
+      <c r="D156" s="6" t="inlineStr">
         <is>
           <t>Well, I think you're talking about advertising and I didn't make myself clear, I'm talking more about position statements by different media Outlets or the way reporters cover certain events. I wasn't thinking about the advertising. I expect advertising to be partisan. However, I don't expect what is supposed to be a free press to be partisan. That's not journalism to me.</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>155</v>
-      </c>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="n"/>
     </row>
     <row r="157" ht="12.5" customHeight="1">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B157" s="4" t="inlineStr">
+      <c r="C157" s="6" t="inlineStr">
         <is>
           <t>"55:21"</t>
         </is>
       </c>
-      <c r="C157" s="4" t="inlineStr">
+      <c r="D157" s="6" t="inlineStr">
         <is>
           <t>Yeah, I guess that's kind of the nature of the media's. It has to be sensationalizing and everything kind of always has been I guess.</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>156</v>
-      </c>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="n"/>
     </row>
     <row r="158" ht="12.5" customHeight="1">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B158" s="4" t="inlineStr">
+      <c r="C158" s="6" t="inlineStr">
         <is>
           <t>"55:32"</t>
         </is>
       </c>
-      <c r="C158" s="4" t="inlineStr">
+      <c r="D158" s="6" t="inlineStr">
         <is>
           <t>It hasn't always been there used to be media that was neutral. Well, way more neutral than it is now</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
-        <v>157</v>
-      </c>
+      <c r="E158" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F158" s="6" t="n"/>
     </row>
     <row r="159" ht="12.5" customHeight="1">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B159" s="4" t="inlineStr">
+      <c r="C159" s="6" t="inlineStr">
         <is>
           <t>"55:41"</t>
         </is>
       </c>
-      <c r="C159" s="4" t="inlineStr">
+      <c r="D159" s="6" t="inlineStr">
         <is>
           <t>A free press is free. I mean, people started papers because they wanted to put their opinion out the major media that now that's a different story. I mean yeah they seem to be biased one way or the other when they should just be objective. But you know newspapers have editorials and they have opinion columns visual media does same thing.</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
+      <c r="E159" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F159" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. A free press is free to express its opinions.
 2. Newspapers were started by people who wanted to share their opinions.
@@ -4285,356 +4423,369 @@
 6. Visual media also presents information from a particular viewpoint in addition to objective reporting.</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>158</v>
-      </c>
     </row>
     <row r="160" ht="12.5" customHeight="1">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B160" s="4" t="inlineStr">
+      <c r="C160" s="6" t="inlineStr">
         <is>
           <t>"56:11"</t>
         </is>
       </c>
-      <c r="C160" s="4" t="inlineStr">
+      <c r="D160" s="6" t="inlineStr">
         <is>
           <t>May I feel like that's a different topic. Just the dilation of media in general just how there's so much out there. You know, the only way for yours to be seen as if it's on an extreme end or if you are a source and you have to stick to your your side to retain your own viewers, otherwise they'll go somewhere else but to hear what they want to hear. So I think that's a separate topic but still the Stein here for sure.</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>159</v>
-      </c>
+      <c r="E160" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F160" s="6" t="n"/>
     </row>
     <row r="161" ht="12.5" customHeight="1">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B161" s="4" t="inlineStr">
+      <c r="C161" s="6" t="inlineStr">
         <is>
           <t>"60:53"</t>
         </is>
       </c>
-      <c r="C161" s="4" t="inlineStr">
+      <c r="D161" s="6" t="inlineStr">
         <is>
           <t>I would be thinking that perhaps we want the experts to discuss Peters question in the context of what we could do to make it feasible. I mean I think it is a feasible option but what we have to do in order to make sure that that feasible option is an option that we can all live with based on security</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. It is suggested that experts discuss Peters question.
-2. The discussion should be in the context of making a feasible option.
-3. The option is considered feasible.
-4. The goal is to make sure the feasible option is acceptable to all, in terms of security.</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
-        <v>160</v>
+      <c r="E161" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F161" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. Consider Peters question in the context of feasibility.
+2. Option of addressing Peters question is considered feasible.
+3. Discussion needed to ensure the feasible option is acceptable to all, regarding security.</t>
+        </is>
       </c>
     </row>
     <row r="162" ht="12.5" customHeight="1">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="6" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B162" s="4" t="inlineStr">
+      <c r="C162" s="6" t="inlineStr">
         <is>
           <t>"61:20"</t>
         </is>
       </c>
-      <c r="C162" s="4" t="inlineStr">
+      <c r="D162" s="6" t="inlineStr">
         <is>
           <t>Yeah, I like that suggestion.</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>161</v>
-      </c>
+      <c r="E162" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F162" s="6" t="n"/>
     </row>
     <row r="163" ht="12.5" customHeight="1">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="6" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B163" s="4" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>"61:37"</t>
         </is>
       </c>
-      <c r="C163" s="4" t="inlineStr">
+      <c r="D163" s="6" t="inlineStr">
         <is>
           <t>Does anyone want to help out with some wording?</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>162</v>
-      </c>
+      <c r="E163" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F163" s="6" t="n"/>
     </row>
     <row r="164" ht="12.5" customHeight="1">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B164" s="4" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>"61:45"</t>
         </is>
       </c>
-      <c r="C164" s="4" t="inlineStr">
+      <c r="D164" s="6" t="inlineStr">
         <is>
           <t>I think I would say how how do we reduce the data breachers, how do we reduce and prevent data breaches from hackers and manipulators? If we were to</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>163</v>
-      </c>
+      <c r="E164" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F164" s="6" t="n"/>
     </row>
     <row r="165" ht="12.5" customHeight="1">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="6" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B165" s="4" t="inlineStr">
+      <c r="C165" s="6" t="inlineStr">
         <is>
           <t>"61:45"</t>
         </is>
       </c>
-      <c r="C165" s="4" t="inlineStr">
+      <c r="D165" s="6" t="inlineStr">
         <is>
           <t>Enact whatever it is. The question is talking about that. I just forgot. Sorry.</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>164</v>
-      </c>
+      <c r="E165" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F165" s="6" t="n"/>
     </row>
     <row r="166" ht="12.5" customHeight="1">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B166" s="4" t="inlineStr">
+      <c r="C166" s="6" t="inlineStr">
         <is>
           <t>"61:45"</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>165</v>
-      </c>
+      <c r="D166" s="6" t="n"/>
+      <c r="E166" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F166" s="6" t="n"/>
     </row>
     <row r="167" ht="12.5" customHeight="1">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="6" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B167" s="4" t="inlineStr">
+      <c r="C167" s="6" t="inlineStr">
         <is>
           <t>"61:45"</t>
         </is>
       </c>
-      <c r="C167" s="4" t="inlineStr">
+      <c r="D167" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> so if we were gone going to online voting,</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>166</v>
-      </c>
+      <c r="E167" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F167" s="6" t="n"/>
     </row>
     <row r="168" ht="12.5" customHeight="1">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="6" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B168" s="4" t="inlineStr">
+      <c r="C168" s="6" t="inlineStr">
         <is>
           <t>"61:45"</t>
         </is>
       </c>
-      <c r="C168" s="4" t="inlineStr">
+      <c r="D168" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> if online, voting is adopted,</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F168" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The system is online.
-2. The method of decision making is through voting.</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>167</v>
+2. The method of decision-making being used is voting.</t>
+        </is>
       </c>
     </row>
     <row r="169" ht="12.5" customHeight="1">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="6" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B169" s="4" t="inlineStr">
+      <c r="C169" s="6" t="inlineStr">
         <is>
           <t>"62:33"</t>
         </is>
       </c>
-      <c r="C169" s="4" t="inlineStr">
+      <c r="D169" s="6" t="inlineStr">
         <is>
           <t>Give me a thumbs up If Everyone likes it.</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
-        <v>168</v>
-      </c>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F169" s="6" t="n"/>
     </row>
     <row r="170" ht="12.5" customHeight="1">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B170" s="4" t="inlineStr">
+      <c r="C170" s="6" t="inlineStr">
         <is>
           <t>"62:42"</t>
         </is>
       </c>
-      <c r="C170" s="4" t="inlineStr">
+      <c r="D170" s="6" t="inlineStr">
         <is>
           <t>Maybe we should have something in there and also what kind of Trail do we have? Once the vote is cast to to make sure that the vote is properly tabulated.</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>169</v>
-      </c>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F170" s="6" t="n"/>
     </row>
     <row r="171" ht="12.5" customHeight="1">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="6" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B171" s="4" t="inlineStr">
+      <c r="C171" s="6" t="inlineStr">
         <is>
           <t>"63:39"</t>
         </is>
       </c>
-      <c r="C171" s="4" t="inlineStr">
+      <c r="D171" s="6" t="inlineStr">
         <is>
           <t>The way I understood the materials, if we had Federal voting standards, it would have to be enacted by Congress. And I would think that that would have to be both houses of Congress and signed into the law by the president, but I'm not 100% sure. So maybe it would just the question might be if people agree with me it would be how would we go about?</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>170</v>
-      </c>
+      <c r="E171" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F171" s="6" t="n"/>
     </row>
     <row r="172" ht="12.5" customHeight="1">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="6" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B172" s="4" t="inlineStr">
+      <c r="C172" s="6" t="inlineStr">
         <is>
           <t>"63:39"</t>
         </is>
       </c>
-      <c r="C172" s="4" t="inlineStr">
+      <c r="D172" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ting Federal voting standards with a divided Congress, maybe or something of that sort.</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>171</v>
-      </c>
+      <c r="E172" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F172" s="6" t="n"/>
     </row>
     <row r="173" ht="12.5" customHeight="1">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B173" s="4" t="inlineStr">
+      <c r="C173" s="6" t="inlineStr">
         <is>
           <t>"64:24"</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>172</v>
-      </c>
+      <c r="D173" s="6" t="n"/>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F173" s="6" t="n"/>
     </row>
     <row r="174" ht="12.5" customHeight="1">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="6" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B174" s="4" t="inlineStr">
+      <c r="C174" s="6" t="inlineStr">
         <is>
           <t>"64:24"</t>
         </is>
       </c>
-      <c r="C174" s="4" t="inlineStr">
+      <c r="D174" s="6" t="inlineStr">
         <is>
           <t>Oh yeah, I think this is a pretty nice and straight forward question and and Katie's, right? I mean, yes it would require, I think Federal legislation debate in Congress. I mean, typical legislation. I mean, I know it's been done in the past and then it was led to to expire and hasn't been picked up yet.</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F174" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The question is about Federal legislation debate in Congress.
 2. The legislation in question has been done in the past but has since expired.
@@ -4642,191 +4793,198 @@
 4. The speaker agrees that this is a nice and straightforward question, which they believe was asked by someone named Katie.</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>173</v>
-      </c>
     </row>
     <row r="175" ht="12.5" customHeight="1">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="6" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="6" t="n">
         <v>48640</v>
       </c>
-      <c r="B175" s="4" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
         <is>
           <t>"64:52"</t>
         </is>
       </c>
-      <c r="C175" s="4" t="inlineStr">
+      <c r="D175" s="6" t="inlineStr">
         <is>
           <t>My only thing is I think of a need to be something, I don't know by law or whatever. It would be just something to change by every whipstitch whoever was in charge of Congress, at that time, otherwise I could see it be confusing for people to just kind of flip back and forth different kinds. So,</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F175" t="n">
-        <v>174</v>
-      </c>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F175" s="6" t="n"/>
     </row>
     <row r="176" ht="12.5" customHeight="1">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="6" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B176" s="4" t="inlineStr">
+      <c r="C176" s="6" t="inlineStr">
         <is>
           <t>"65:10"</t>
         </is>
       </c>
-      <c r="C176" s="4" t="inlineStr">
+      <c r="D176" s="6" t="inlineStr">
         <is>
           <t>Yeah, I like the idea of kind of including in this. It's what LJ had mentioned about enacting standards that kind of appeal to</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F176" t="n">
-        <v>175</v>
-      </c>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F176" s="6" t="n"/>
     </row>
     <row r="177" ht="12.5" customHeight="1">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="6" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B177" s="4" t="inlineStr">
+      <c r="C177" s="6" t="inlineStr">
         <is>
           <t>"65:10"</t>
         </is>
       </c>
-      <c r="C177" s="4" t="inlineStr">
+      <c r="D177" s="6" t="inlineStr">
         <is>
           <t>both sides of things or different.</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F177" t="n">
-        <v>176</v>
-      </c>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F177" s="6" t="n"/>
     </row>
     <row r="178" ht="12.5" customHeight="1">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="6" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="6" t="n">
         <v>9881</v>
       </c>
-      <c r="B178" s="4" t="inlineStr">
+      <c r="C178" s="6" t="inlineStr">
         <is>
           <t>"65:10"</t>
         </is>
       </c>
-      <c r="C178" s="4" t="inlineStr">
+      <c r="D178" s="6" t="inlineStr">
         <is>
           <t>I wanna say like cultures or state States and stuff like that. I have no idea what the right word would be.</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F178" t="n">
-        <v>177</v>
-      </c>
+      <c r="E178" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F178" s="6" t="n"/>
     </row>
     <row r="179" ht="12.5" customHeight="1">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="6" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B179" s="4" t="inlineStr">
+      <c r="C179" s="6" t="inlineStr">
         <is>
           <t>"65:41"</t>
         </is>
       </c>
-      <c r="C179" s="4" t="inlineStr">
+      <c r="D179" s="6" t="inlineStr">
         <is>
           <t>I think the Voting Rights Act, I think there was a gun control act at one point and what when the proposed and passed, they're given an expiration date. So, you know, future congresses. Future. Legislators have the opportunity to either continue it or not, depending on the current frame of mind.</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F179" t="n">
-        <v>178</v>
-      </c>
+      <c r="E179" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F179" s="6" t="n"/>
     </row>
     <row r="180" ht="12.5" customHeight="1">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="6" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B180" s="4" t="inlineStr">
+      <c r="C180" s="6" t="inlineStr">
         <is>
           <t>"66:17"</t>
         </is>
       </c>
-      <c r="C180" s="4" t="inlineStr">
+      <c r="D180" s="6" t="inlineStr">
         <is>
           <t>Dave, I'm sorry to say I do not understand your question when you say, where did the distinctions obviously, aside from the fact that one is appointed in? One is elected, what other distinctions are in your mind when you submitted the question?</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F180" t="n">
-        <v>179</v>
-      </c>
+      <c r="E180" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F180" s="6" t="n"/>
     </row>
     <row r="181" ht="12.5" customHeight="1">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B181" s="4" t="inlineStr">
+      <c r="C181" s="6" t="inlineStr">
         <is>
           <t>"66:36"</t>
         </is>
       </c>
-      <c r="C181" s="4" t="inlineStr">
+      <c r="D181" s="6" t="inlineStr">
         <is>
           <t>Yeah, I realize it's kind of simplistic. My fingers don't talk as fast as my hands do. So when the other way around my mouth is talks faster than my fingers. And anyway, yeah, I'm just wondering because some states have, you know, do it one way and some some say, doing another and some states, it's the party in charge. The secretary secretary of state is in charge of Elections and that can get</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F181" t="n">
-        <v>180</v>
-      </c>
+      <c r="E181" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F181" s="6" t="n"/>
     </row>
     <row r="182" ht="12.5" customHeight="1">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="6" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B182" s="4" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
         <is>
           <t>"66:36"</t>
         </is>
       </c>
-      <c r="C182" s="4" t="inlineStr">
+      <c r="D182" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Get in it has in the past gets very partisan people that are appointed whether they favor one side or another. I mean, I think it's an important issue but it just it really the</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F182" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The appointment process for "it" (not specified in the text) has been partisan in the past.
 2. People appointed to this position may favor one side or the other.
@@ -4834,89 +4992,94 @@
 4. The speaker is implying that the appointment process should be fair and unbiased.</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>181</v>
-      </c>
     </row>
     <row r="183" ht="12.5" customHeight="1">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="6" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B183" s="4" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
         <is>
           <t>"67:21"</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F183" t="n">
-        <v>182</v>
-      </c>
+      <c r="D183" s="6" t="n"/>
+      <c r="E183" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F183" s="6" t="n"/>
     </row>
     <row r="184" ht="12.5" customHeight="1">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="6" t="n">
         <v>9798</v>
       </c>
-      <c r="B184" s="4" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
         <is>
           <t>"67:21"</t>
         </is>
       </c>
-      <c r="C184" s="4" t="inlineStr">
+      <c r="D184" s="6" t="inlineStr">
         <is>
           <t>So is the question that you're asking is when is it determined when position is appointed versus ones determined to be elected? Is that the question</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F184" t="n">
-        <v>183</v>
-      </c>
+      <c r="E184" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F184" s="6" t="n"/>
     </row>
     <row r="185" ht="12.5" customHeight="1">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B185" s="4" t="inlineStr">
+      <c r="C185" s="6" t="inlineStr">
         <is>
           <t>"67:36"</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F185" t="n">
-        <v>184</v>
-      </c>
+      <c r="D185" s="6" t="n"/>
+      <c r="E185" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F185" s="6" t="n"/>
     </row>
     <row r="186" ht="12.5" customHeight="1">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="6" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B186" s="4" t="inlineStr">
+      <c r="C186" s="6" t="inlineStr">
         <is>
           <t>"67:36"</t>
         </is>
       </c>
-      <c r="C186" s="4" t="inlineStr">
+      <c r="D186" s="6" t="inlineStr">
         <is>
           <t>I think and I didn't, you know, haven't read ahead into the pros and cons or whatever. But I mean, it's basically one of the advantages from one over the other and what are each each weaknesses. I mean, I'm thinking specifically of Florida in 2000. I mean, the secretary of state had too much influence on that election.</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F186" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker has an opinion about an unspecified topic, but hasn't read about its pros and cons.
 2. The speaker is comparing the advantages and weaknesses of two unspecified things.
@@ -4924,352 +5087,372 @@
 4. The secretary of state in Florida in 2000 had too much influence on the election.</t>
         </is>
       </c>
-      <c r="F186" t="n">
-        <v>185</v>
-      </c>
     </row>
     <row r="187" ht="12.5" customHeight="1">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="6" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B187" s="4" t="inlineStr">
+      <c r="C187" s="6" t="inlineStr">
         <is>
           <t>"68:02"</t>
         </is>
       </c>
-      <c r="C187" s="4" t="inlineStr">
+      <c r="D187" s="6" t="inlineStr">
         <is>
           <t>Are you talking about the chief electoral officer?</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>186</v>
-      </c>
+      <c r="E187" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F187" s="6" t="n"/>
     </row>
     <row r="188" ht="12.5" customHeight="1">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="6" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B188" s="4" t="inlineStr">
+      <c r="C188" s="6" t="inlineStr">
         <is>
           <t>"68:08"</t>
         </is>
       </c>
-      <c r="C188" s="4" t="inlineStr">
+      <c r="D188" s="6" t="inlineStr">
         <is>
           <t>Yes, yet.</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F188" t="n">
-        <v>187</v>
-      </c>
+      <c r="E188" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F188" s="6" t="n"/>
     </row>
     <row r="189" ht="12.5" customHeight="1">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B189" s="4" t="inlineStr">
+      <c r="C189" s="6" t="inlineStr">
         <is>
           <t>"68:08"</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F189" t="n">
-        <v>188</v>
-      </c>
+      <c r="D189" s="6" t="n"/>
+      <c r="E189" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F189" s="6" t="n"/>
     </row>
     <row r="190" ht="12.5" customHeight="1">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B190" s="4" t="inlineStr">
+      <c r="C190" s="6" t="inlineStr">
         <is>
           <t>"68:08"</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F190" t="n">
-        <v>189</v>
-      </c>
+      <c r="D190" s="6" t="n"/>
+      <c r="E190" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F190" s="6" t="n"/>
     </row>
     <row r="191" ht="12.5" customHeight="1">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B191" s="4" t="inlineStr">
+      <c r="C191" s="6" t="inlineStr">
         <is>
           <t>"68:08"</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F191" t="n">
-        <v>190</v>
-      </c>
+      <c r="D191" s="6" t="n"/>
+      <c r="E191" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F191" s="6" t="n"/>
     </row>
     <row r="192" ht="12.5" customHeight="1">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="6" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B192" s="4" t="inlineStr">
+      <c r="C192" s="6" t="inlineStr">
         <is>
           <t>"68:13"</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F192" t="n">
-        <v>191</v>
-      </c>
+      <c r="D192" s="6" t="n"/>
+      <c r="E192" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F192" s="6" t="n"/>
     </row>
     <row r="193" ht="12.5" customHeight="1">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B193" s="4" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
         <is>
           <t>"68:13"</t>
         </is>
       </c>
-      <c r="C193" s="4" t="inlineStr">
+      <c r="D193" s="6" t="inlineStr">
         <is>
           <t>Yes, I'm talking about the people that run the election at the local level or at the state level? I'm not sure there must be someone at the state overall, but then, in each district, there must be someone that that oversees how things are done.</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>192</v>
-      </c>
+      <c r="E193" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F193" s="6" t="n"/>
     </row>
     <row r="194" ht="12.5" customHeight="1">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="6" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B194" s="4" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
         <is>
           <t>"68:32"</t>
         </is>
       </c>
-      <c r="C194" s="4" t="inlineStr">
+      <c r="D194" s="6" t="inlineStr">
         <is>
           <t>I think that's the part that needs to be added to your question. Is that you're you're talking about it in that context, not just in general.</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
+      <c r="E194" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F194" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text to summarize is not provided in the request.
 2. The request asks for a summarized list of arguments from the text.
 3. Without the text, a summarized list of arguments cannot be created.</t>
         </is>
       </c>
-      <c r="F194" t="n">
-        <v>193</v>
-      </c>
     </row>
     <row r="195" ht="12.5" customHeight="1">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="6" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="6" t="n">
         <v>48676</v>
       </c>
-      <c r="B195" s="4" t="inlineStr">
+      <c r="C195" s="6" t="inlineStr">
         <is>
           <t>"68:32"</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>194</v>
-      </c>
+      <c r="D195" s="6" t="n"/>
+      <c r="E195" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F195" s="6" t="n"/>
     </row>
     <row r="196" ht="12.5" customHeight="1">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="6" t="n">
         <v>9424</v>
       </c>
-      <c r="B196" s="4" t="inlineStr">
+      <c r="C196" s="6" t="inlineStr">
         <is>
           <t>"68:45"</t>
         </is>
       </c>
-      <c r="C196" s="4" t="inlineStr">
+      <c r="D196" s="6" t="inlineStr">
         <is>
           <t>Do the questions you wanted to say, what are the advantages between appointed versus elected? Instead of distinctions,</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>195</v>
-      </c>
+      <c r="E196" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F196" s="6" t="n"/>
     </row>
     <row r="197" ht="12.5" customHeight="1">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="6" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B197" s="4" t="inlineStr">
+      <c r="C197" s="6" t="inlineStr">
         <is>
           <t>"69:09"</t>
         </is>
       </c>
-      <c r="C197" s="4" t="inlineStr">
+      <c r="D197" s="6" t="inlineStr">
         <is>
           <t>I'm thinking are you really trying to get to how to get partisanship out of the decision-making by the Electoral officials and estate? Is that really your question?</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F197" t="n">
-        <v>196</v>
-      </c>
+      <c r="E197" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F197" s="6" t="n"/>
     </row>
     <row r="198" ht="12.5" customHeight="1">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="6" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B198" s="4" t="inlineStr">
+      <c r="C198" s="6" t="inlineStr">
         <is>
           <t>"69:33"</t>
         </is>
       </c>
-      <c r="C198" s="4" t="inlineStr">
+      <c r="D198" s="6" t="inlineStr">
         <is>
           <t>Yes, I guess overall. My preference is to eliminate partisanship. So what what's the best way to do that?</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F198" t="n">
-        <v>197</v>
-      </c>
+      <c r="E198" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F198" s="6" t="n"/>
     </row>
     <row r="199" ht="12.5" customHeight="1">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="6" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="6" t="n">
         <v>48747</v>
       </c>
-      <c r="B199" s="4" t="inlineStr">
+      <c r="C199" s="6" t="inlineStr">
         <is>
           <t>"69:33"</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F199" t="n">
-        <v>198</v>
-      </c>
+      <c r="D199" s="6" t="n"/>
+      <c r="E199" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F199" s="6" t="n"/>
     </row>
     <row r="200" ht="12.5" customHeight="1">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B200" s="4" t="inlineStr">
+      <c r="C200" s="6" t="inlineStr">
         <is>
           <t>"69:52"</t>
         </is>
       </c>
-      <c r="C200" s="4" t="inlineStr">
+      <c r="D200" s="6" t="inlineStr">
         <is>
           <t>Then I think that should be the question.</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F200" t="n">
-        <v>199</v>
-      </c>
+      <c r="E200" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F200" s="6" t="n"/>
     </row>
     <row r="201" ht="12.5" customHeight="1">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B201" s="4" t="inlineStr">
+      <c r="C201" s="6" t="inlineStr">
         <is>
           <t>"69:52"</t>
         </is>
       </c>
-      <c r="C201" s="4" t="inlineStr">
+      <c r="D201" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> How best to eliminate partisanship regardless of whether an elected? I'm sorry, an elector. An election official is appointed or elected. Is that really what you're getting at? I think,</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F201" t="n">
-        <v>200</v>
-      </c>
+      <c r="E201" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F201" s="6" t="n"/>
     </row>
     <row r="202" ht="12.5" customHeight="1">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="6" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B202" s="4" t="inlineStr">
+      <c r="C202" s="6" t="inlineStr">
         <is>
           <t>"71:39"</t>
         </is>
       </c>
-      <c r="C202" s="4" t="inlineStr">
+      <c r="D202" s="6" t="inlineStr">
         <is>
           <t>I would ask for a several suggestions because I'm sure there's going to be disagreement on the panel. Maybe what are the various ways to eliminate partisanship in elected officials? Who are overseeing State elections?</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
+      <c r="E202" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F202" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. A suggestion to be made regarding the elimination of partisanship in elected officials.
 2. There will likely be disagreement on the panel regarding this topic.
@@ -5277,162 +5460,46 @@
 4. A question regarding who is overseeing State elections.</t>
         </is>
       </c>
-      <c r="F202" t="n">
-        <v>201</v>
-      </c>
     </row>
     <row r="203" ht="12.5" customHeight="1">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="6" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B203" s="4" t="inlineStr">
+      <c r="C203" s="6" t="inlineStr">
         <is>
           <t>"71:39"</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F203" t="n">
-        <v>202</v>
-      </c>
+      <c r="D203" s="6" t="n"/>
+      <c r="E203" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F203" s="6" t="n"/>
     </row>
     <row r="204" ht="12.5" customHeight="1">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="6" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="6" t="n">
         <v>48845</v>
       </c>
-      <c r="B204" s="4" t="inlineStr">
+      <c r="C204" s="6" t="inlineStr">
         <is>
           <t>"71:39"</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
-        </is>
-      </c>
+      <c r="D204" s="6" t="n"/>
+      <c r="E204" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F204" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
